--- a/test_data/test_data_infos.xlsx
+++ b/test_data/test_data_infos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA336D2E-1CF3-4858-9DF3-286226A878F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8C9981-C6AC-4C57-889D-992919FB57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="4695" windowWidth="23220" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="4215" windowWidth="23220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>username=test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuitTest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -187,6 +183,10 @@
   </si>
   <si>
     <t>bug_content=好好学习，天天向上！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=test02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -684,7 +684,7 @@
         <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>31</v>
@@ -796,13 +796,13 @@
         <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -826,7 +826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -875,25 +875,25 @@
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>

--- a/test_data/test_data_infos.xlsx
+++ b/test_data/test_data_infos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/PycharmProjects/UI-automation-framework/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8C9981-C6AC-4C57-889D-992919FB57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BCDD09-D534-BE4F-8AE7-0D63CC586668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="4215" windowWidth="23220" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="4220" windowWidth="23220" windowHeight="11380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -194,7 +194,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -569,22 +569,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -677,8 +677,8 @@
       <c r="C2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
+      <c r="D2" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>42</v>
@@ -699,7 +699,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="22.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>37</v>
@@ -744,19 +744,19 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
@@ -826,22 +826,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.625" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="35.25" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -884,7 +884,7 @@
         <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>48</v>

--- a/test_data/test_data_infos.xlsx
+++ b/test_data/test_data_infos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytedance/PycharmProjects/UI-automation-framework/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UI-automation-framework\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BCDD09-D534-BE4F-8AE7-0D63CC586668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E1394E-1076-4FCB-899E-3ED97072073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="4220" windowWidth="23220" windowHeight="11380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4365" yWindow="1515" windowWidth="23220" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="51">
   <si>
     <t>测试方法名</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>LoginCase</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>password=newdream123</t>
@@ -194,7 +191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -570,21 +567,21 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="20.125" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="25.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -678,48 +675,48 @@
         <v>29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:27" ht="22.5" customHeight="1">
+    <row r="3" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -743,20 +740,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,21 +785,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -826,22 +823,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="35.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -873,27 +870,27 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="22.5" customHeight="1">
+    <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
